--- a/PythonResources/Data/Consumption/Sympheny/post_1045_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1045_coo.xlsx
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>2.809654463383998</v>
+        <v>2.809654463383997</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>2.686887005288761</v>
+        <v>2.68688700528876</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>11.90560064616303</v>
+        <v>11.90560064616302</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30367,7 +30367,7 @@
         <v>3753</v>
       </c>
       <c r="B3753">
-        <v>7.685875910205379</v>
+        <v>7.685875910205378</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -30463,7 +30463,7 @@
         <v>3765</v>
       </c>
       <c r="B3765">
-        <v>4.787256802325343</v>
+        <v>4.787256802325342</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>29.73322915634813</v>
+        <v>29.73322915634812</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>8.504980156159974</v>
+        <v>8.504980156159972</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -30831,7 +30831,7 @@
         <v>3811</v>
       </c>
       <c r="B3811">
-        <v>4.729258043774263</v>
+        <v>4.729258043774262</v>
       </c>
     </row>
     <row r="3812" spans="1:2">
@@ -31543,7 +31543,7 @@
         <v>3900</v>
       </c>
       <c r="B3900">
-        <v>9.19214382050923</v>
+        <v>9.192143820509228</v>
       </c>
     </row>
     <row r="3901" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>15.76669435211079</v>
+        <v>15.76669435211078</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>7.412763009276872</v>
+        <v>7.412763009276871</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>11.25486571191938</v>
+        <v>11.25486571191937</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>22.28740773391026</v>
+        <v>22.28740773391025</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>28.7306917472954</v>
+        <v>28.73069174729539</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>6.911347769231176</v>
+        <v>6.911347769231175</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>15.42180835381412</v>
+        <v>15.42180835381411</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>15.28192554706106</v>
+        <v>15.28192554706105</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>16.92200969361768</v>
+        <v>16.92200969361767</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>27.97808532001306</v>
+        <v>27.97808532001305</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>7.261538353327618</v>
+        <v>7.261538353327617</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>6.43677783632686</v>
+        <v>6.436777836326859</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>31.65284445957994</v>
+        <v>31.65284445957993</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32999,7 +32999,7 @@
         <v>4082</v>
       </c>
       <c r="B4082">
-        <v>6.092771051146173</v>
+        <v>6.092771051146172</v>
       </c>
     </row>
     <row r="4083" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>4.274470405979588</v>
+        <v>4.274470405979587</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>5.318067067548772</v>
+        <v>5.318067067548771</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>19.46190985017623</v>
+        <v>19.46190985017622</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33199,7 +33199,7 @@
         <v>4107</v>
       </c>
       <c r="B4107">
-        <v>1.478478914417982</v>
+        <v>1.478478914417981</v>
       </c>
     </row>
     <row r="4108" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>2.982437424937181</v>
+        <v>2.98243742493718</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>17.80778760086773</v>
+        <v>17.80778760086772</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33343,7 +33343,7 @@
         <v>4125</v>
       </c>
       <c r="B4125">
-        <v>6.504623781776961</v>
+        <v>6.50462378177696</v>
       </c>
     </row>
     <row r="4126" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>5.279791989899601</v>
+        <v>5.2797919898996</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>3.738590011787318</v>
+        <v>3.738590011787317</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>13.04256974064972</v>
+        <v>13.04256974064971</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33703,7 +33703,7 @@
         <v>4170</v>
       </c>
       <c r="B4170">
-        <v>8.37717187619976</v>
+        <v>8.377171876199759</v>
       </c>
     </row>
     <row r="4171" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>2.78293810749963</v>
+        <v>2.782938107499629</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>0.8505361148510233</v>
+        <v>0.8505361148510232</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>8.371369069634266</v>
+        <v>8.371369069634264</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>5.364782591111391</v>
+        <v>5.36478259111139</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>4.890974642907594</v>
+        <v>4.890974642907593</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34303,7 +34303,7 @@
         <v>4245</v>
       </c>
       <c r="B4245">
-        <v>5.488224112595549</v>
+        <v>5.488224112595548</v>
       </c>
     </row>
     <row r="4246" spans="1:2">
@@ -34351,7 +34351,7 @@
         <v>4251</v>
       </c>
       <c r="B4251">
-        <v>0.7884519460210039</v>
+        <v>0.7884519460210038</v>
       </c>
     </row>
     <row r="4252" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>7.471465138320739</v>
+        <v>7.471465138320738</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>15.18867034255902</v>
+        <v>15.18867034255901</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34471,7 +34471,7 @@
         <v>4266</v>
       </c>
       <c r="B4266">
-        <v>9.570615759836491</v>
+        <v>9.570615759836487</v>
       </c>
     </row>
     <row r="4267" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>22.37579795917052</v>
+        <v>22.37579795917051</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34679,7 +34679,7 @@
         <v>4292</v>
       </c>
       <c r="B4292">
-        <v>7.500801549290739</v>
+        <v>7.500801549290738</v>
       </c>
     </row>
     <row r="4293" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>7.045339848107143</v>
+        <v>7.045339848107142</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>9.485918229663362</v>
+        <v>9.48591822966336</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35295,7 +35295,7 @@
         <v>4369</v>
       </c>
       <c r="B4369">
-        <v>1.840802639515003</v>
+        <v>1.840802639515002</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>25.94698579367448</v>
+        <v>25.94698579367447</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>8.80054229864994</v>
+        <v>8.800542298649939</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35503,7 +35503,7 @@
         <v>4395</v>
       </c>
       <c r="B4395">
-        <v>3.680503331924639</v>
+        <v>3.680503331924638</v>
       </c>
     </row>
     <row r="4396" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>2.903733197504677</v>
+        <v>2.903733197504676</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>23.81383893167401</v>
+        <v>23.813838931674</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>10.13442582401319</v>
+        <v>10.13442582401318</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35927,7 +35927,7 @@
         <v>4448</v>
       </c>
       <c r="B4448">
-        <v>9.34401323274354</v>
+        <v>9.344013232743537</v>
       </c>
     </row>
     <row r="4449" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>27.92078993195477</v>
+        <v>27.92078993195476</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36007,7 +36007,7 @@
         <v>4458</v>
       </c>
       <c r="B4458">
-        <v>19.71424401446365</v>
+        <v>19.71424401446364</v>
       </c>
     </row>
     <row r="4459" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>6.583518505384595</v>
+        <v>6.583518505384594</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>24.03194239864578</v>
+        <v>24.03194239864577</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>5.893980965622181</v>
+        <v>5.89398096562218</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36279,7 +36279,7 @@
         <v>4492</v>
       </c>
       <c r="B4492">
-        <v>5.313964073007513</v>
+        <v>5.313964073007512</v>
       </c>
     </row>
     <row r="4493" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>7.855564041590298</v>
+        <v>7.855564041590297</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36471,7 +36471,7 @@
         <v>4516</v>
       </c>
       <c r="B4516">
-        <v>4.393955468441818</v>
+        <v>4.393955468441817</v>
       </c>
     </row>
     <row r="4517" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>17.3578942494187</v>
+        <v>17.35789424941869</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36615,7 +36615,7 @@
         <v>4534</v>
       </c>
       <c r="B4534">
-        <v>6.774424979968595</v>
+        <v>6.774424979968594</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36639,7 +36639,7 @@
         <v>4537</v>
       </c>
       <c r="B4537">
-        <v>5.828508895585237</v>
+        <v>5.828508895585236</v>
       </c>
     </row>
     <row r="4538" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>5.110514157968807</v>
+        <v>5.110514157968806</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>20.60591264959079</v>
+        <v>20.60591264959078</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36799,7 +36799,7 @@
         <v>4557</v>
       </c>
       <c r="B4557">
-        <v>6.556204284581358</v>
+        <v>6.556204284581357</v>
       </c>
     </row>
     <row r="4558" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>3.580624721948853</v>
+        <v>3.580624721948852</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>2.680624077192568</v>
+        <v>2.680624077192567</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>26.15462662456604</v>
+        <v>26.15462662456603</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37183,7 +37183,7 @@
         <v>4605</v>
       </c>
       <c r="B4605">
-        <v>9.030456528479766</v>
+        <v>9.030456528479764</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>7.141174077749403</v>
+        <v>7.141174077749402</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37223,7 +37223,7 @@
         <v>4610</v>
       </c>
       <c r="B4610">
-        <v>2.662160601756903</v>
+        <v>2.662160601756902</v>
       </c>
     </row>
     <row r="4611" spans="1:2">
@@ -37231,7 +37231,7 @@
         <v>4611</v>
       </c>
       <c r="B4611">
-        <v>0.8296665261879489</v>
+        <v>0.8296665261879488</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37391,7 +37391,7 @@
         <v>4631</v>
       </c>
       <c r="B4631">
-        <v>6.040340642329658</v>
+        <v>6.040340642329657</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37431,7 +37431,7 @@
         <v>4636</v>
       </c>
       <c r="B4636">
-        <v>4.454416023717654</v>
+        <v>4.454416023717653</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>6.298594841598035</v>
+        <v>6.298594841598034</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>4.205715940309636</v>
+        <v>4.205715940309635</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37751,7 +37751,7 @@
         <v>4676</v>
       </c>
       <c r="B4676">
-        <v>6.890715568109417</v>
+        <v>6.890715568109416</v>
       </c>
     </row>
     <row r="4677" spans="1:2">
@@ -37767,7 +37767,7 @@
         <v>4678</v>
       </c>
       <c r="B4678">
-        <v>2.766127552722015</v>
+        <v>2.766127552722014</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -37943,7 +37943,7 @@
         <v>4700</v>
       </c>
       <c r="B4700">
-        <v>6.449907418858888</v>
+        <v>6.449907418858887</v>
       </c>
     </row>
     <row r="4701" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>20.05212561493631</v>
+        <v>20.0521256149363</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38143,7 +38143,7 @@
         <v>4725</v>
       </c>
       <c r="B4725">
-        <v>9.447555230702593</v>
+        <v>9.447555230702591</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38167,7 +38167,7 @@
         <v>4728</v>
       </c>
       <c r="B4728">
-        <v>5.899021787487157</v>
+        <v>5.899021787487156</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>27.70359498520285</v>
+        <v>27.70359498520284</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38375,7 +38375,7 @@
         <v>4754</v>
       </c>
       <c r="B4754">
-        <v>8.787705787156574</v>
+        <v>8.787705787156572</v>
       </c>
     </row>
     <row r="4755" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>6.958854584598179</v>
+        <v>6.958854584598178</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>31.83103165108604</v>
+        <v>31.83103165108603</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>13.46201301118184</v>
+        <v>13.46201301118183</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>36.68751183274319</v>
+        <v>36.68751183274318</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>38.36915345258199</v>
+        <v>38.36915345258198</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38895,7 +38895,7 @@
         <v>4819</v>
       </c>
       <c r="B4819">
-        <v>23.42842120873048</v>
+        <v>23.42842120873047</v>
       </c>
     </row>
     <row r="4820" spans="1:2">
@@ -38975,7 +38975,7 @@
         <v>4829</v>
       </c>
       <c r="B4829">
-        <v>7.879420024137332</v>
+        <v>7.879420024137331</v>
       </c>
     </row>
     <row r="4830" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>19.74867986150636</v>
+        <v>19.74867986150635</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>13.37813607991696</v>
+        <v>13.37813607991695</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>8.085302428796927</v>
+        <v>8.085302428796926</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>9.863979869536498</v>
+        <v>9.863979869536497</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>17.71969044664613</v>
+        <v>17.71969044664612</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39951,7 +39951,7 @@
         <v>4951</v>
       </c>
       <c r="B4951">
-        <v>19.26203540180919</v>
+        <v>19.26203540180918</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>6.796581150491393</v>
+        <v>6.796581150491392</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>4.093997260371931</v>
+        <v>4.09399726037193</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>2.386691409677558</v>
+        <v>2.386691409677557</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>3.008227676339379</v>
+        <v>3.008227676339378</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>2.149095787924419</v>
+        <v>2.149095787924418</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>1.310147701942065</v>
+        <v>1.310147701942064</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>21.41256137640228</v>
+        <v>21.41256137640227</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>15.85707746043395</v>
+        <v>15.85707746043394</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>22.96270202119373</v>
+        <v>22.96270202119372</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41431,7 +41431,7 @@
         <v>5136</v>
       </c>
       <c r="B5136">
-        <v>8.151653711949855</v>
+        <v>8.151653711949853</v>
       </c>
     </row>
     <row r="5137" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>6.501868914013544</v>
+        <v>6.501868914013543</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>22.37192942146019</v>
+        <v>22.37192942146018</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41615,7 +41615,7 @@
         <v>5159</v>
       </c>
       <c r="B5159">
-        <v>8.254023425754264</v>
+        <v>8.254023425754262</v>
       </c>
     </row>
     <row r="5160" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>7.848032115896701</v>
+        <v>7.8480321158967</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>6.10628162602846</v>
+        <v>6.106281626028459</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41927,7 +41927,7 @@
         <v>5198</v>
       </c>
       <c r="B5198">
-        <v>5.847353363371162</v>
+        <v>5.847353363371161</v>
       </c>
     </row>
     <row r="5199" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>5.378293165993679</v>
+        <v>5.378293165993678</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>6.676304796224777</v>
+        <v>6.676304796224776</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>7.642677239106697</v>
+        <v>7.642677239106696</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>20.13658868827851</v>
+        <v>20.1365886882785</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42559,7 +42559,7 @@
         <v>5277</v>
       </c>
       <c r="B5277">
-        <v>0.4966704199297685</v>
+        <v>0.4966704199297684</v>
       </c>
     </row>
     <row r="5278" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>9.185960021593475</v>
+        <v>9.185960021593472</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>17.76684557676674</v>
+        <v>17.76684557676673</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42727,7 +42727,7 @@
         <v>5298</v>
       </c>
       <c r="B5298">
-        <v>18.96439245494473</v>
+        <v>18.96439245494472</v>
       </c>
     </row>
     <row r="5299" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>6.46133718936668</v>
+        <v>6.461337189366679</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>0.906392524109489</v>
+        <v>0.9063925241094888</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>19.09817938409363</v>
+        <v>19.09817938409362</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -42967,7 +42967,7 @@
         <v>5328</v>
       </c>
       <c r="B5328">
-        <v>2.502653758255079</v>
+        <v>2.502653758255078</v>
       </c>
     </row>
     <row r="5329" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>7.605281374573509</v>
+        <v>7.605281374573508</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>1.224770246959242</v>
+        <v>1.224770246959241</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>9.050912886978328</v>
+        <v>9.050912886978326</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43271,7 +43271,7 @@
         <v>5366</v>
       </c>
       <c r="B5366">
-        <v>19.28524662807117</v>
+        <v>19.28524662807116</v>
       </c>
     </row>
     <row r="5367" spans="1:2">
@@ -43367,7 +43367,7 @@
         <v>5378</v>
       </c>
       <c r="B5378">
-        <v>5.902157647600833</v>
+        <v>5.902157647600832</v>
       </c>
     </row>
     <row r="5379" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>26.11895987916096</v>
+        <v>26.11895987916095</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>22.19567649880926</v>
+        <v>22.19567649880925</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>35.8314513288134</v>
+        <v>35.83145132881339</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>32.69529814409835</v>
+        <v>32.69529814409834</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>10.9031511584219</v>
+        <v>10.90315115842189</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>0.5870447361217676</v>
+        <v>0.5870447361217674</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -43783,7 +43783,7 @@
         <v>5430</v>
       </c>
       <c r="B5430">
-        <v>3.684635633569764</v>
+        <v>3.684635633569763</v>
       </c>
     </row>
     <row r="5431" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>16.85598078860728</v>
+        <v>16.85598078860727</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43991,7 +43991,7 @@
         <v>5456</v>
       </c>
       <c r="B5456">
-        <v>7.375542987366881</v>
+        <v>7.37554298736688</v>
       </c>
     </row>
     <row r="5457" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>11.96535783094608</v>
+        <v>11.96535783094607</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>5.890933026820104</v>
+        <v>5.890933026820103</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>6.544803821177431</v>
+        <v>6.54480382117743</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>8.71206415207808</v>
+        <v>8.712064152078078</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44639,7 +44639,7 @@
         <v>5537</v>
       </c>
       <c r="B5537">
-        <v>7.469853247608102</v>
+        <v>7.469853247608101</v>
       </c>
     </row>
     <row r="5538" spans="1:2">
@@ -44655,7 +44655,7 @@
         <v>5539</v>
       </c>
       <c r="B5539">
-        <v>3.970409203368442</v>
+        <v>3.970409203368441</v>
       </c>
     </row>
     <row r="5540" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>0.9743439751335086</v>
+        <v>0.9743439751335085</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44751,7 +44751,7 @@
         <v>5551</v>
       </c>
       <c r="B5551">
-        <v>7.179537076710172</v>
+        <v>7.179537076710171</v>
       </c>
     </row>
     <row r="5552" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>21.04039046440624</v>
+        <v>21.04039046440623</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44911,7 +44911,7 @@
         <v>5571</v>
       </c>
       <c r="B5571">
-        <v>5.58678390289736</v>
+        <v>5.586783902897359</v>
       </c>
     </row>
     <row r="5572" spans="1:2">
@@ -45423,7 +45423,7 @@
         <v>5635</v>
       </c>
       <c r="B5635">
-        <v>4.811991997988361</v>
+        <v>4.81199199798836</v>
       </c>
     </row>
     <row r="5636" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>5.831849905425976</v>
+        <v>5.831849905425975</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>2.941231636901396</v>
+        <v>2.941231636901395</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46063,7 +46063,7 @@
         <v>5715</v>
       </c>
       <c r="B5715">
-        <v>2.870484288168547</v>
+        <v>2.870484288168546</v>
       </c>
     </row>
     <row r="5716" spans="1:2">
@@ -46071,7 +46071,7 @@
         <v>5716</v>
       </c>
       <c r="B5716">
-        <v>2.335427423594916</v>
+        <v>2.335427423594915</v>
       </c>
     </row>
     <row r="5717" spans="1:2">
@@ -46223,7 +46223,7 @@
         <v>5735</v>
       </c>
       <c r="B5735">
-        <v>6.373796870118536</v>
+        <v>6.373796870118535</v>
       </c>
     </row>
     <row r="5736" spans="1:2">
@@ -46287,7 +46287,7 @@
         <v>5743</v>
       </c>
       <c r="B5743">
-        <v>10.35103462868779</v>
+        <v>10.35103462868778</v>
       </c>
     </row>
     <row r="5744" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>25.37795906500961</v>
+        <v>25.3779590650096</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>6.967969093900548</v>
+        <v>6.967969093900547</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>9.856770321985428</v>
+        <v>9.856770321985426</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>17.31331814443831</v>
+        <v>17.3133181444383</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>7.651234913435608</v>
+        <v>7.651234913435607</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>15.42696640409456</v>
+        <v>15.42696640409455</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>5.070832339334062</v>
+        <v>5.070832339334061</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>1.640743556393609</v>
+        <v>1.640743556393608</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>4.719967691848699</v>
+        <v>4.719967691848698</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>2.61937809153312</v>
+        <v>2.619378091533119</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>3.99529093455079</v>
+        <v>3.995290934550789</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>7.634764321062841</v>
+        <v>7.63476432106284</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>20.6548848201511</v>
+        <v>20.65488482015109</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48311,7 +48311,7 @@
         <v>5996</v>
       </c>
       <c r="B5996">
-        <v>7.133847301782869</v>
+        <v>7.133847301782868</v>
       </c>
     </row>
     <row r="5997" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>5.809576506487714</v>
+        <v>5.809576506487713</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>9.838658531796158</v>
+        <v>9.838658531796156</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48791,7 +48791,7 @@
         <v>6056</v>
       </c>
       <c r="B6056">
-        <v>4.966264592739693</v>
+        <v>4.966264592739692</v>
       </c>
     </row>
     <row r="6057" spans="1:2">
@@ -49063,7 +49063,7 @@
         <v>6090</v>
       </c>
       <c r="B6090">
-        <v>9.572491414483924</v>
+        <v>9.572491414483922</v>
       </c>
     </row>
     <row r="6091" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>6.533842964331497</v>
+        <v>6.533842964331496</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>12.77690084410321</v>
+        <v>12.7769008441032</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49255,7 +49255,7 @@
         <v>6114</v>
       </c>
       <c r="B6114">
-        <v>9.77131080711178</v>
+        <v>9.771310807111778</v>
       </c>
     </row>
     <row r="6115" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>7.183991756497825</v>
+        <v>7.183991756497824</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50215,7 +50215,7 @@
         <v>6234</v>
       </c>
       <c r="B6234">
-        <v>7.691473567043811</v>
+        <v>7.69147356704381</v>
       </c>
     </row>
     <row r="6235" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>17.83955650145862</v>
+        <v>17.83955650145861</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50655,7 +50655,7 @@
         <v>6289</v>
       </c>
       <c r="B6289">
-        <v>1.506136028336453</v>
+        <v>1.506136028336452</v>
       </c>
     </row>
     <row r="6290" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>5.135630345982085</v>
+        <v>5.135630345982084</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>24.12021539549058</v>
+        <v>24.12021539549057</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50791,7 +50791,7 @@
         <v>6306</v>
       </c>
       <c r="B6306">
-        <v>14.29834983420972</v>
+        <v>14.29834983420971</v>
       </c>
     </row>
     <row r="6307" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>3.157723213160532</v>
+        <v>3.157723213160531</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50935,7 +50935,7 @@
         <v>6324</v>
       </c>
       <c r="B6324">
-        <v>3.892129928941997</v>
+        <v>3.892129928941996</v>
       </c>
     </row>
     <row r="6325" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>8.639529070009397</v>
+        <v>8.639529070009395</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>6.640901814754487</v>
+        <v>6.640901814754486</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>0.5795362561112639</v>
+        <v>0.5795362561112638</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>2.176366048071857</v>
+        <v>2.176366048071856</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>2.165455013302495</v>
+        <v>2.165455013302494</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>17.50422461902231</v>
+        <v>17.5042246190223</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>7.084845824118692</v>
+        <v>7.084845824118691</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>5.962119982110944</v>
+        <v>5.962119982110943</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
